--- a/September'21/29.09.2021/Hello Daffodils Balance Transfer August-2021.xlsx
+++ b/September'21/29.09.2021/Hello Daffodils Balance Transfer August-2021.xlsx
@@ -1358,8 +1358,8 @@
   <dimension ref="A1:BH238"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
